--- a/automated.xlsx
+++ b/automated.xlsx
@@ -217,6 +217,9 @@
     <t>18418</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
@@ -256,9 +259,6 @@
     <t>782</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>95.75</t>
   </si>
   <si>
@@ -550,28 +550,28 @@
     <t>RND</t>
   </si>
   <si>
-    <t>17181</t>
-  </si>
-  <si>
-    <t>1237</t>
-  </si>
-  <si>
-    <t>616</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>93.28</t>
-  </si>
-  <si>
-    <t>6.72</t>
+    <t>17158</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>93.16</t>
+  </si>
+  <si>
+    <t>6.84</t>
   </si>
   <si>
     <t>4.77 Cycles/Instruction (14192)</t>
   </si>
   <si>
-    <t>408 / 1024</t>
+    <t>405 / 1024</t>
   </si>
   <si>
     <t>17617</t>
@@ -580,10 +580,10 @@
     <t>801</t>
   </si>
   <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>767</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>95.65</t>
@@ -592,7 +592,25 @@
     <t>4.35</t>
   </si>
   <si>
-    <t>7428 / 8192</t>
+    <t>7425 / 8192</t>
+  </si>
+  <si>
+    <t>17633</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>95.74</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>31991 / 32768</t>
   </si>
   <si>
     <t>780</t>
@@ -601,183 +619,168 @@
     <t>2</t>
   </si>
   <si>
-    <t>31988 / 32768</t>
-  </si>
-  <si>
-    <t>779</t>
+    <t>130292 / 131072</t>
+  </si>
+  <si>
+    <t>17251</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>93.66</t>
+  </si>
+  <si>
+    <t>6.34</t>
+  </si>
+  <si>
+    <t>5.09 Cycles/Instruction (14192)</t>
+  </si>
+  <si>
+    <t>1.00 KB / 8.00KB</t>
+  </si>
+  <si>
+    <t>115 / 512</t>
+  </si>
+  <si>
+    <t>17796</t>
+  </si>
+  <si>
+    <t>622</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>96.62</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>4.86 Cycles/Instruction (14192)</t>
+  </si>
+  <si>
+    <t>3523 / 4096</t>
+  </si>
+  <si>
+    <t>17825</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>96.78</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>4.85 Cycles/Instruction (14192)</t>
+  </si>
+  <si>
+    <t>15798 / 16384</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>64948 / 65536</t>
+  </si>
+  <si>
+    <t>17010</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>92.36</t>
+  </si>
+  <si>
+    <t>7.64</t>
+  </si>
+  <si>
+    <t>7.57 Cycles/Instruction (14192)</t>
+  </si>
+  <si>
+    <t>2 / 128</t>
+  </si>
+  <si>
+    <t>18033</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>97.91</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>5.41 Cycles/Instruction (14192)</t>
+  </si>
+  <si>
+    <t>43.00 KB / 64.00KB</t>
+  </si>
+  <si>
+    <t>709 / 1024</t>
+  </si>
+  <si>
+    <t>18069</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>98.11</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>5.33 Cycles/Instruction (14192)</t>
+  </si>
+  <si>
+    <t>3760 / 4096</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>16042 / 16384</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>130293 / 131072</t>
-  </si>
-  <si>
-    <t>17144</t>
-  </si>
-  <si>
-    <t>1274</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
-    <t>93.08</t>
-  </si>
-  <si>
-    <t>6.92</t>
-  </si>
-  <si>
-    <t>5.13 Cycles/Instruction (14192)</t>
-  </si>
-  <si>
-    <t>1.00 KB / 8.00KB</t>
-  </si>
-  <si>
-    <t>112 / 512</t>
-  </si>
-  <si>
-    <t>17798</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>96.63</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>4.86 Cycles/Instruction (14192)</t>
-  </si>
-  <si>
-    <t>3527 / 4096</t>
-  </si>
-  <si>
-    <t>17824</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>96.77</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>4.85 Cycles/Instruction (14192)</t>
-  </si>
-  <si>
-    <t>15799 / 16384</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>64947 / 65536</t>
-  </si>
-  <si>
-    <t>17037</t>
-  </si>
-  <si>
-    <t>1381</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>1256</t>
-  </si>
-  <si>
-    <t>92.50</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>7.51 Cycles/Instruction (14192)</t>
-  </si>
-  <si>
-    <t>3 / 128</t>
-  </si>
-  <si>
-    <t>18051</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>98.01</t>
-  </si>
-  <si>
-    <t>1.99</t>
-  </si>
-  <si>
-    <t>5.37 Cycles/Instruction (14192)</t>
-  </si>
-  <si>
-    <t>43.00 KB / 64.00KB</t>
-  </si>
-  <si>
-    <t>714 / 1024</t>
-  </si>
-  <si>
-    <t>18070</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>98.11</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>5.33 Cycles/Instruction (14192)</t>
-  </si>
-  <si>
-    <t>3759 / 4096</t>
-  </si>
-  <si>
-    <t>18073</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>16042 / 16384</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>66.67</t>
   </si>
   <si>
@@ -1198,151 +1201,145 @@
     <t>15715 / 16384</t>
   </si>
   <si>
-    <t>33957</t>
-  </si>
-  <si>
-    <t>2725</t>
-  </si>
-  <si>
-    <t>899</t>
-  </si>
-  <si>
-    <t>1826</t>
-  </si>
-  <si>
-    <t>92.57</t>
-  </si>
-  <si>
-    <t>7.43</t>
-  </si>
-  <si>
-    <t>125 / 1024</t>
-  </si>
-  <si>
-    <t>34803</t>
-  </si>
-  <si>
-    <t>1879</t>
-  </si>
-  <si>
-    <t>1675</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>94.88</t>
-  </si>
-  <si>
-    <t>5.12</t>
+    <t>33990</t>
+  </si>
+  <si>
+    <t>2692</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>1777</t>
+  </si>
+  <si>
+    <t>92.66</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>109 / 1024</t>
+  </si>
+  <si>
+    <t>34815</t>
+  </si>
+  <si>
+    <t>1867</t>
+  </si>
+  <si>
+    <t>1681</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>94.91</t>
+  </si>
+  <si>
+    <t>5.09</t>
   </si>
   <si>
     <t>44.00 KB / 64.00KB</t>
   </si>
   <si>
-    <t>6517 / 8192</t>
-  </si>
-  <si>
-    <t>34855</t>
-  </si>
-  <si>
-    <t>1827</t>
-  </si>
-  <si>
-    <t>1777</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>95.02</t>
-  </si>
-  <si>
-    <t>4.98</t>
-  </si>
-  <si>
-    <t>30991 / 32768</t>
-  </si>
-  <si>
-    <t>34862</t>
-  </si>
-  <si>
-    <t>1820</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>129270 / 131072</t>
-  </si>
-  <si>
-    <t>34130</t>
-  </si>
-  <si>
-    <t>2552</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>2052</t>
-  </si>
-  <si>
-    <t>93.04</t>
-  </si>
-  <si>
-    <t>6.96</t>
+    <t>6511 / 8192</t>
+  </si>
+  <si>
+    <t>34853</t>
+  </si>
+  <si>
+    <t>1829</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>95.01</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>30988 / 32768</t>
+  </si>
+  <si>
+    <t>34863</t>
+  </si>
+  <si>
+    <t>1819</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>129267 / 131072</t>
+  </si>
+  <si>
+    <t>34154</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>93.11</t>
+  </si>
+  <si>
+    <t>6.89</t>
   </si>
   <si>
     <t>5.14 Cycles/Instruction (28238)</t>
   </si>
   <si>
-    <t>12 / 512</t>
-  </si>
-  <si>
-    <t>35368</t>
-  </si>
-  <si>
-    <t>1314</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>96.42</t>
-  </si>
-  <si>
-    <t>3.58</t>
+    <t>16 / 512</t>
+  </si>
+  <si>
+    <t>35357</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>96.39</t>
+  </si>
+  <si>
+    <t>3.61</t>
   </si>
   <si>
     <t>4.88 Cycles/Instruction (28238)</t>
   </si>
   <si>
-    <t>2956 / 4096</t>
-  </si>
-  <si>
-    <t>35407</t>
-  </si>
-  <si>
-    <t>1275</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>96.52</t>
-  </si>
-  <si>
-    <t>3.48</t>
-  </si>
-  <si>
-    <t>15161 / 16384</t>
+    <t>2969 / 4096</t>
+  </si>
+  <si>
+    <t>35403</t>
+  </si>
+  <si>
+    <t>1279</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>96.51</t>
+  </si>
+  <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>15169 / 16384</t>
   </si>
   <si>
     <t>35415</t>
@@ -1351,7 +1348,7 @@
     <t>1267</t>
   </si>
   <si>
-    <t>1249</t>
+    <t>1247</t>
   </si>
   <si>
     <t>96.55</t>
@@ -1363,73 +1360,76 @@
     <t>949.00 KB / 1024.00KB</t>
   </si>
   <si>
-    <t>64287 / 65536</t>
-  </si>
-  <si>
-    <t>33939</t>
-  </si>
-  <si>
-    <t>2743</t>
-  </si>
-  <si>
-    <t>2615</t>
-  </si>
-  <si>
-    <t>7.51 Cycles/Instruction (28238)</t>
-  </si>
-  <si>
-    <t>35910</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>97.90</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>5.42 Cycles/Instruction (28238)</t>
+    <t>64289 / 65536</t>
+  </si>
+  <si>
+    <t>33999</t>
+  </si>
+  <si>
+    <t>2683</t>
+  </si>
+  <si>
+    <t>2555</t>
+  </si>
+  <si>
+    <t>92.69</t>
+  </si>
+  <si>
+    <t>7.31</t>
+  </si>
+  <si>
+    <t>7.45 Cycles/Instruction (28238)</t>
+  </si>
+  <si>
+    <t>35929</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>97.95</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>5.40 Cycles/Instruction (28238)</t>
   </si>
   <si>
     <t>30.00 KB / 64.00KB</t>
   </si>
   <si>
-    <t>496 / 1024</t>
-  </si>
-  <si>
-    <t>35989</t>
-  </si>
-  <si>
-    <t>693</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>5.33 Cycles/Instruction (28238)</t>
-  </si>
-  <si>
-    <t>3469 / 4096</t>
-  </si>
-  <si>
-    <t>35998</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>33</t>
+    <t>498 / 1024</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>212.00 KB / 256.00KB</t>
+  </si>
+  <si>
+    <t>3456 / 4096</t>
+  </si>
+  <si>
+    <t>35999</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>98.14</t>
@@ -1441,7 +1441,7 @@
     <t>968.00 KB / 1024.00KB</t>
   </si>
   <si>
-    <t>15733 / 16384</t>
+    <t>15730 / 16384</t>
   </si>
 </sst>
 </file>
@@ -2002,18 +2002,18 @@
         <v>56</v>
       </c>
       <c r="AJ2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AK2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -2034,25 +2034,25 @@
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
         <v>49</v>
@@ -2064,7 +2064,7 @@
         <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
         <v>52</v>
@@ -2076,16 +2076,16 @@
         <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
         <v>80</v>
@@ -2112,19 +2112,19 @@
         <v>65</v>
       </c>
       <c r="AH3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -2159,7 +2159,7 @@
         <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
         <v>88</v>
@@ -2192,16 +2192,16 @@
         <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z4" t="s">
         <v>80</v>
@@ -2228,19 +2228,19 @@
         <v>65</v>
       </c>
       <c r="AH4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -2308,16 +2308,16 @@
         <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z5" t="s">
         <v>80</v>
@@ -2344,19 +2344,19 @@
         <v>65</v>
       </c>
       <c r="AH5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -2466,18 +2466,18 @@
         <v>111</v>
       </c>
       <c r="AJ6" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -2501,7 +2501,7 @@
         <v>119</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
@@ -2528,7 +2528,7 @@
         <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
         <v>109</v>
@@ -2549,7 +2549,7 @@
         <v>124</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z7" t="s">
         <v>125</v>
@@ -2582,13 +2582,13 @@
         <v>124</v>
       </c>
       <c r="AJ7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -2665,7 +2665,7 @@
         <v>124</v>
       </c>
       <c r="Y8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z8" t="s">
         <v>125</v>
@@ -2698,13 +2698,13 @@
         <v>124</v>
       </c>
       <c r="AJ8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2781,7 +2781,7 @@
         <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z9" t="s">
         <v>125</v>
@@ -2814,13 +2814,13 @@
         <v>124</v>
       </c>
       <c r="AJ9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -2828,7 +2828,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -2930,21 +2930,21 @@
         <v>148</v>
       </c>
       <c r="AJ10" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="AK10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -2965,7 +2965,7 @@
         <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
         <v>38</v>
@@ -2992,7 +2992,7 @@
         <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
         <v>146</v>
@@ -3046,13 +3046,13 @@
         <v>158</v>
       </c>
       <c r="AJ11" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="AK11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -3060,7 +3060,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -3129,7 +3129,7 @@
         <v>158</v>
       </c>
       <c r="Y12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z12" t="s">
         <v>161</v>
@@ -3162,13 +3162,13 @@
         <v>158</v>
       </c>
       <c r="AJ12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -3176,7 +3176,7 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -3245,7 +3245,7 @@
         <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z13" t="s">
         <v>161</v>
@@ -3278,13 +3278,13 @@
         <v>158</v>
       </c>
       <c r="AJ13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -3394,18 +3394,18 @@
         <v>178</v>
       </c>
       <c r="AJ14" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="AK14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -3426,25 +3426,25 @@
         <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
         <v>49</v>
@@ -3456,7 +3456,7 @@
         <v>39</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
         <v>52</v>
@@ -3510,13 +3510,13 @@
         <v>186</v>
       </c>
       <c r="AJ15" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="AK15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -3551,7 +3551,7 @@
         <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
         <v>88</v>
@@ -3584,22 +3584,22 @@
         <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="W16" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="X16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AA16" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="AB16" t="s">
         <v>82</v>
@@ -3608,7 +3608,7 @@
         <v>92</v>
       </c>
       <c r="AD16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AE16" t="s">
         <v>50</v>
@@ -3620,19 +3620,19 @@
         <v>65</v>
       </c>
       <c r="AH16" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AI16" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="AJ16" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="AK16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -3700,16 +3700,16 @@
         <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s">
         <v>80</v>
@@ -3724,7 +3724,7 @@
         <v>101</v>
       </c>
       <c r="AD17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AE17" t="s">
         <v>50</v>
@@ -3736,19 +3736,19 @@
         <v>65</v>
       </c>
       <c r="AH17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="AK17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:38">
@@ -3816,31 +3816,31 @@
         <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="W18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Y18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AA18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AB18" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AC18" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AD18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AE18" t="s">
         <v>50</v>
@@ -3852,24 +3852,24 @@
         <v>65</v>
       </c>
       <c r="AH18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AI18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AJ18" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="AK18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:38">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -3893,7 +3893,7 @@
         <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -3920,7 +3920,7 @@
         <v>39</v>
       </c>
       <c r="R19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
         <v>109</v>
@@ -3932,31 +3932,31 @@
         <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="W19" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="X19" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Z19" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AA19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AB19" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AC19" t="s">
         <v>128</v>
       </c>
       <c r="AD19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AE19" t="s">
         <v>50</v>
@@ -3968,19 +3968,19 @@
         <v>65</v>
       </c>
       <c r="AH19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AI19" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AJ19" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="AK19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -4048,31 +4048,31 @@
         <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="W20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="X20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Y20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Z20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AC20" t="s">
         <v>135</v>
       </c>
       <c r="AD20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AE20" t="s">
         <v>50</v>
@@ -4084,19 +4084,19 @@
         <v>65</v>
       </c>
       <c r="AH20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AI20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AJ20" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="AK20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -4170,10 +4170,10 @@
         <v>124</v>
       </c>
       <c r="X21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="Z21" t="s">
         <v>125</v>
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="AD21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AE21" t="s">
         <v>50</v>
@@ -4206,13 +4206,13 @@
         <v>124</v>
       </c>
       <c r="AJ21" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="AK21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -4220,7 +4220,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -4280,31 +4280,31 @@
         <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Z22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AA22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AB22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AC22" t="s">
         <v>117</v>
       </c>
       <c r="AD22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AE22" t="s">
         <v>50</v>
@@ -4316,27 +4316,27 @@
         <v>65</v>
       </c>
       <c r="AH22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AI22" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="AJ22" t="s">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="AK22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:38">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -4357,7 +4357,7 @@
         <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
@@ -4384,7 +4384,7 @@
         <v>39</v>
       </c>
       <c r="R23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s">
         <v>146</v>
@@ -4396,31 +4396,31 @@
         <v>54</v>
       </c>
       <c r="V23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Z23" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AA23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AB23" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AC23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD23" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AE23" t="s">
         <v>50</v>
@@ -4432,19 +4432,19 @@
         <v>65</v>
       </c>
       <c r="AH23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AI23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AJ23" t="s">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="AK23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -4452,7 +4452,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -4512,31 +4512,31 @@
         <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Y24" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="Z24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AA24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AB24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AC24" t="s">
         <v>135</v>
       </c>
       <c r="AD24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AE24" t="s">
         <v>50</v>
@@ -4548,19 +4548,19 @@
         <v>65</v>
       </c>
       <c r="AH24" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AI24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AJ24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AK24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:38">
@@ -4568,7 +4568,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -4628,16 +4628,16 @@
         <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="W25" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="X25" t="s">
         <v>250</v>
       </c>
       <c r="Y25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Z25" t="s">
         <v>161</v>
@@ -4664,19 +4664,19 @@
         <v>65</v>
       </c>
       <c r="AH25" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="AI25" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="AJ25" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="AK25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4870,34 +4870,34 @@
         <v>87</v>
       </c>
       <c r="U2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V2" t="s">
         <v>252</v>
       </c>
       <c r="W2" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X2" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AC2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE2" t="s">
         <v>50</v>
@@ -4912,13 +4912,13 @@
         <v>252</v>
       </c>
       <c r="AI2" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL2" t="s">
         <v>49</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -4947,25 +4947,25 @@
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
         <v>49</v>
@@ -4977,7 +4977,7 @@
         <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
         <v>131</v>
@@ -4986,34 +4986,34 @@
         <v>87</v>
       </c>
       <c r="U3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V3" t="s">
         <v>252</v>
       </c>
       <c r="W3" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X3" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AC3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AD3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE3" t="s">
         <v>50</v>
@@ -5028,13 +5028,13 @@
         <v>252</v>
       </c>
       <c r="AI3" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL3" t="s">
         <v>49</v>
@@ -5072,7 +5072,7 @@
         <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
         <v>88</v>
@@ -5102,34 +5102,34 @@
         <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V4" t="s">
         <v>252</v>
       </c>
       <c r="W4" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X4" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AC4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AD4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AE4" t="s">
         <v>50</v>
@@ -5144,13 +5144,13 @@
         <v>252</v>
       </c>
       <c r="AI4" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL4" t="s">
         <v>49</v>
@@ -5218,34 +5218,34 @@
         <v>87</v>
       </c>
       <c r="U5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V5" t="s">
         <v>252</v>
       </c>
       <c r="W5" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X5" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AC5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AD5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AE5" t="s">
         <v>50</v>
@@ -5260,13 +5260,13 @@
         <v>252</v>
       </c>
       <c r="AI5" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL5" t="s">
         <v>49</v>
@@ -5334,34 +5334,34 @@
         <v>87</v>
       </c>
       <c r="U6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V6" t="s">
         <v>252</v>
       </c>
       <c r="W6" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X6" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE6" t="s">
         <v>50</v>
@@ -5376,13 +5376,13 @@
         <v>252</v>
       </c>
       <c r="AI6" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL6" t="s">
         <v>49</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -5414,7 +5414,7 @@
         <v>119</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
@@ -5441,7 +5441,7 @@
         <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
         <v>87</v>
@@ -5450,34 +5450,34 @@
         <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V7" t="s">
         <v>252</v>
       </c>
       <c r="W7" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X7" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE7" t="s">
         <v>50</v>
@@ -5492,13 +5492,13 @@
         <v>252</v>
       </c>
       <c r="AI7" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL7" t="s">
         <v>49</v>
@@ -5566,34 +5566,34 @@
         <v>87</v>
       </c>
       <c r="U8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V8" t="s">
         <v>252</v>
       </c>
       <c r="W8" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X8" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE8" t="s">
         <v>50</v>
@@ -5608,13 +5608,13 @@
         <v>252</v>
       </c>
       <c r="AI8" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL8" t="s">
         <v>49</v>
@@ -5682,34 +5682,34 @@
         <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V9" t="s">
         <v>252</v>
       </c>
       <c r="W9" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X9" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE9" t="s">
         <v>50</v>
@@ -5724,13 +5724,13 @@
         <v>252</v>
       </c>
       <c r="AI9" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL9" t="s">
         <v>49</v>
@@ -5741,7 +5741,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -5798,34 +5798,34 @@
         <v>87</v>
       </c>
       <c r="U10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V10" t="s">
         <v>252</v>
       </c>
       <c r="W10" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X10" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE10" t="s">
         <v>50</v>
@@ -5840,13 +5840,13 @@
         <v>252</v>
       </c>
       <c r="AI10" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL10" t="s">
         <v>49</v>
@@ -5854,10 +5854,10 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -5878,7 +5878,7 @@
         <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
         <v>38</v>
@@ -5905,7 +5905,7 @@
         <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
         <v>96</v>
@@ -5914,34 +5914,34 @@
         <v>87</v>
       </c>
       <c r="U11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V11" t="s">
         <v>252</v>
       </c>
       <c r="W11" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X11" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE11" t="s">
         <v>50</v>
@@ -5956,13 +5956,13 @@
         <v>252</v>
       </c>
       <c r="AI11" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL11" t="s">
         <v>49</v>
@@ -5973,7 +5973,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -6030,34 +6030,34 @@
         <v>87</v>
       </c>
       <c r="U12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V12" t="s">
         <v>252</v>
       </c>
       <c r="W12" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X12" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE12" t="s">
         <v>50</v>
@@ -6072,13 +6072,13 @@
         <v>252</v>
       </c>
       <c r="AI12" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL12" t="s">
         <v>49</v>
@@ -6089,7 +6089,7 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -6146,34 +6146,34 @@
         <v>87</v>
       </c>
       <c r="U13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V13" t="s">
         <v>252</v>
       </c>
       <c r="W13" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X13" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE13" t="s">
         <v>50</v>
@@ -6188,13 +6188,13 @@
         <v>252</v>
       </c>
       <c r="AI13" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL13" t="s">
         <v>49</v>
@@ -6262,34 +6262,34 @@
         <v>87</v>
       </c>
       <c r="U14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V14" t="s">
         <v>252</v>
       </c>
       <c r="W14" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X14" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AC14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE14" t="s">
         <v>50</v>
@@ -6304,13 +6304,13 @@
         <v>252</v>
       </c>
       <c r="AI14" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL14" t="s">
         <v>49</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -6339,25 +6339,25 @@
         <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
         <v>49</v>
@@ -6369,7 +6369,7 @@
         <v>39</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
         <v>131</v>
@@ -6378,34 +6378,34 @@
         <v>87</v>
       </c>
       <c r="U15" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V15" t="s">
         <v>252</v>
       </c>
       <c r="W15" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X15" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y15" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AC15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AD15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="s">
         <v>50</v>
@@ -6420,13 +6420,13 @@
         <v>252</v>
       </c>
       <c r="AI15" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ15" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK15" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL15" t="s">
         <v>49</v>
@@ -6464,7 +6464,7 @@
         <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
         <v>88</v>
@@ -6494,34 +6494,34 @@
         <v>87</v>
       </c>
       <c r="U16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V16" t="s">
         <v>252</v>
       </c>
       <c r="W16" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X16" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AC16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AD16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AE16" t="s">
         <v>50</v>
@@ -6536,13 +6536,13 @@
         <v>252</v>
       </c>
       <c r="AI16" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL16" t="s">
         <v>49</v>
@@ -6610,34 +6610,34 @@
         <v>87</v>
       </c>
       <c r="U17" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V17" t="s">
         <v>252</v>
       </c>
       <c r="W17" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X17" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y17" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AC17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AD17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AE17" t="s">
         <v>50</v>
@@ -6652,13 +6652,13 @@
         <v>252</v>
       </c>
       <c r="AI17" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ17" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK17" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL17" t="s">
         <v>49</v>
@@ -6726,34 +6726,34 @@
         <v>87</v>
       </c>
       <c r="U18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V18" t="s">
         <v>252</v>
       </c>
       <c r="W18" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X18" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE18" t="s">
         <v>50</v>
@@ -6768,13 +6768,13 @@
         <v>252</v>
       </c>
       <c r="AI18" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL18" t="s">
         <v>49</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -6806,7 +6806,7 @@
         <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -6833,7 +6833,7 @@
         <v>39</v>
       </c>
       <c r="R19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
         <v>87</v>
@@ -6842,34 +6842,34 @@
         <v>87</v>
       </c>
       <c r="U19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V19" t="s">
         <v>252</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE19" t="s">
         <v>50</v>
@@ -6884,13 +6884,13 @@
         <v>252</v>
       </c>
       <c r="AI19" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL19" t="s">
         <v>49</v>
@@ -6958,34 +6958,34 @@
         <v>87</v>
       </c>
       <c r="U20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V20" t="s">
         <v>252</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X20" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE20" t="s">
         <v>50</v>
@@ -7000,13 +7000,13 @@
         <v>252</v>
       </c>
       <c r="AI20" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL20" t="s">
         <v>49</v>
@@ -7074,34 +7074,34 @@
         <v>87</v>
       </c>
       <c r="U21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V21" t="s">
         <v>252</v>
       </c>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X21" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE21" t="s">
         <v>50</v>
@@ -7116,13 +7116,13 @@
         <v>252</v>
       </c>
       <c r="AI21" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL21" t="s">
         <v>49</v>
@@ -7133,7 +7133,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -7190,34 +7190,34 @@
         <v>87</v>
       </c>
       <c r="U22" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V22" t="s">
         <v>252</v>
       </c>
       <c r="W22" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X22" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y22" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE22" t="s">
         <v>50</v>
@@ -7232,13 +7232,13 @@
         <v>252</v>
       </c>
       <c r="AI22" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ22" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK22" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL22" t="s">
         <v>49</v>
@@ -7246,10 +7246,10 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -7270,7 +7270,7 @@
         <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
@@ -7297,7 +7297,7 @@
         <v>39</v>
       </c>
       <c r="R23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s">
         <v>96</v>
@@ -7306,34 +7306,34 @@
         <v>87</v>
       </c>
       <c r="U23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V23" t="s">
         <v>252</v>
       </c>
       <c r="W23" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X23" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE23" t="s">
         <v>50</v>
@@ -7348,13 +7348,13 @@
         <v>252</v>
       </c>
       <c r="AI23" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL23" t="s">
         <v>49</v>
@@ -7365,7 +7365,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -7422,34 +7422,34 @@
         <v>87</v>
       </c>
       <c r="U24" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V24" t="s">
         <v>252</v>
       </c>
       <c r="W24" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X24" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y24" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE24" t="s">
         <v>50</v>
@@ -7464,13 +7464,13 @@
         <v>252</v>
       </c>
       <c r="AI24" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ24" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK24" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL24" t="s">
         <v>49</v>
@@ -7481,7 +7481,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -7538,34 +7538,34 @@
         <v>87</v>
       </c>
       <c r="U25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="V25" t="s">
         <v>252</v>
       </c>
       <c r="W25" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="X25" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Y25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AD25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AE25" t="s">
         <v>50</v>
@@ -7580,13 +7580,13 @@
         <v>252</v>
       </c>
       <c r="AI25" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AJ25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AL25" t="s">
         <v>49</v>
@@ -7777,40 +7777,40 @@
         <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AE2" t="s">
         <v>50</v>
@@ -7819,27 +7819,27 @@
         <v>64</v>
       </c>
       <c r="AG2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK2" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -7860,25 +7860,25 @@
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
         <v>49</v>
@@ -7890,43 +7890,43 @@
         <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AD3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AE3" t="s">
         <v>50</v>
@@ -7935,22 +7935,22 @@
         <v>64</v>
       </c>
       <c r="AG3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK3" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -7985,7 +7985,7 @@
         <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
         <v>88</v>
@@ -8009,40 +8009,40 @@
         <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE4" t="s">
         <v>50</v>
@@ -8051,22 +8051,22 @@
         <v>64</v>
       </c>
       <c r="AG4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK4" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -8125,40 +8125,40 @@
         <v>100</v>
       </c>
       <c r="S5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AD5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AE5" t="s">
         <v>50</v>
@@ -8167,22 +8167,22 @@
         <v>64</v>
       </c>
       <c r="AG5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK5" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -8241,16 +8241,16 @@
         <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W6" t="s">
         <v>95</v>
@@ -8259,22 +8259,22 @@
         <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AE6" t="s">
         <v>50</v>
@@ -8283,27 +8283,27 @@
         <v>64</v>
       </c>
       <c r="AG6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI6" t="s">
         <v>95</v>
       </c>
       <c r="AJ6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -8327,7 +8327,7 @@
         <v>119</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
@@ -8354,19 +8354,19 @@
         <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W7" t="s">
         <v>95</v>
@@ -8375,22 +8375,22 @@
         <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AE7" t="s">
         <v>50</v>
@@ -8399,22 +8399,22 @@
         <v>64</v>
       </c>
       <c r="AG7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI7" t="s">
         <v>95</v>
       </c>
       <c r="AJ7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK7" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -8473,16 +8473,16 @@
         <v>91</v>
       </c>
       <c r="S8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W8" t="s">
         <v>95</v>
@@ -8491,22 +8491,22 @@
         <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AE8" t="s">
         <v>50</v>
@@ -8515,22 +8515,22 @@
         <v>64</v>
       </c>
       <c r="AG8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI8" t="s">
         <v>95</v>
       </c>
       <c r="AJ8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK8" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -8589,16 +8589,16 @@
         <v>100</v>
       </c>
       <c r="S9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W9" t="s">
         <v>95</v>
@@ -8607,22 +8607,22 @@
         <v>95</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AE9" t="s">
         <v>50</v>
@@ -8631,22 +8631,22 @@
         <v>64</v>
       </c>
       <c r="AG9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI9" t="s">
         <v>95</v>
       </c>
       <c r="AJ9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK9" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -8654,7 +8654,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -8705,16 +8705,16 @@
         <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W10" t="s">
         <v>47</v>
@@ -8723,22 +8723,22 @@
         <v>47</v>
       </c>
       <c r="Y10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AE10" t="s">
         <v>50</v>
@@ -8747,30 +8747,30 @@
         <v>64</v>
       </c>
       <c r="AG10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI10" t="s">
         <v>47</v>
       </c>
       <c r="AJ10" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK10" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -8791,7 +8791,7 @@
         <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
         <v>38</v>
@@ -8818,19 +8818,19 @@
         <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W11" t="s">
         <v>47</v>
@@ -8839,22 +8839,22 @@
         <v>47</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AE11" t="s">
         <v>50</v>
@@ -8863,22 +8863,22 @@
         <v>64</v>
       </c>
       <c r="AG11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI11" t="s">
         <v>47</v>
       </c>
       <c r="AJ11" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK11" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -8886,7 +8886,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -8937,16 +8937,16 @@
         <v>91</v>
       </c>
       <c r="S12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W12" t="s">
         <v>47</v>
@@ -8955,22 +8955,22 @@
         <v>47</v>
       </c>
       <c r="Y12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AE12" t="s">
         <v>50</v>
@@ -8979,22 +8979,22 @@
         <v>64</v>
       </c>
       <c r="AG12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI12" t="s">
         <v>47</v>
       </c>
       <c r="AJ12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK12" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -9002,7 +9002,7 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -9053,16 +9053,16 @@
         <v>100</v>
       </c>
       <c r="S13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W13" t="s">
         <v>47</v>
@@ -9071,22 +9071,22 @@
         <v>47</v>
       </c>
       <c r="Y13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AD13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AE13" t="s">
         <v>50</v>
@@ -9095,22 +9095,22 @@
         <v>64</v>
       </c>
       <c r="AG13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI13" t="s">
         <v>47</v>
       </c>
       <c r="AJ13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK13" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -9169,40 +9169,40 @@
         <v>51</v>
       </c>
       <c r="S14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AE14" t="s">
         <v>50</v>
@@ -9211,27 +9211,27 @@
         <v>64</v>
       </c>
       <c r="AG14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK14" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -9252,25 +9252,25 @@
         <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
         <v>49</v>
@@ -9282,43 +9282,43 @@
         <v>39</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y15" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AD15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AE15" t="s">
         <v>50</v>
@@ -9327,22 +9327,22 @@
         <v>64</v>
       </c>
       <c r="AG15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ15" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK15" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -9377,7 +9377,7 @@
         <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
         <v>88</v>
@@ -9401,40 +9401,40 @@
         <v>91</v>
       </c>
       <c r="S16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE16" t="s">
         <v>50</v>
@@ -9443,22 +9443,22 @@
         <v>64</v>
       </c>
       <c r="AG16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK16" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -9517,40 +9517,40 @@
         <v>100</v>
       </c>
       <c r="S17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y17" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AD17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AE17" t="s">
         <v>50</v>
@@ -9559,22 +9559,22 @@
         <v>64</v>
       </c>
       <c r="AG17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AI17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ17" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK17" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:38">
@@ -9633,16 +9633,16 @@
         <v>51</v>
       </c>
       <c r="S18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W18" t="s">
         <v>95</v>
@@ -9651,22 +9651,22 @@
         <v>95</v>
       </c>
       <c r="Y18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AE18" t="s">
         <v>50</v>
@@ -9675,27 +9675,27 @@
         <v>64</v>
       </c>
       <c r="AG18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI18" t="s">
         <v>95</v>
       </c>
       <c r="AJ18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK18" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:38">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -9719,7 +9719,7 @@
         <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -9746,19 +9746,19 @@
         <v>39</v>
       </c>
       <c r="R19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W19" t="s">
         <v>95</v>
@@ -9767,22 +9767,22 @@
         <v>95</v>
       </c>
       <c r="Y19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AE19" t="s">
         <v>50</v>
@@ -9791,22 +9791,22 @@
         <v>64</v>
       </c>
       <c r="AG19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI19" t="s">
         <v>95</v>
       </c>
       <c r="AJ19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK19" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -9865,16 +9865,16 @@
         <v>91</v>
       </c>
       <c r="S20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W20" t="s">
         <v>95</v>
@@ -9883,22 +9883,22 @@
         <v>95</v>
       </c>
       <c r="Y20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AE20" t="s">
         <v>50</v>
@@ -9907,22 +9907,22 @@
         <v>64</v>
       </c>
       <c r="AG20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI20" t="s">
         <v>95</v>
       </c>
       <c r="AJ20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK20" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -9981,16 +9981,16 @@
         <v>100</v>
       </c>
       <c r="S21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="T21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W21" t="s">
         <v>95</v>
@@ -9999,22 +9999,22 @@
         <v>95</v>
       </c>
       <c r="Y21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AB21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AE21" t="s">
         <v>50</v>
@@ -10023,22 +10023,22 @@
         <v>64</v>
       </c>
       <c r="AG21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI21" t="s">
         <v>95</v>
       </c>
       <c r="AJ21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK21" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -10046,7 +10046,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -10097,16 +10097,16 @@
         <v>51</v>
       </c>
       <c r="S22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W22" t="s">
         <v>47</v>
@@ -10118,19 +10118,19 @@
         <v>160</v>
       </c>
       <c r="Z22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AE22" t="s">
         <v>50</v>
@@ -10139,30 +10139,30 @@
         <v>64</v>
       </c>
       <c r="AG22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI22" t="s">
         <v>47</v>
       </c>
       <c r="AJ22" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="AK22" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:38">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -10183,7 +10183,7 @@
         <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
@@ -10210,19 +10210,19 @@
         <v>39</v>
       </c>
       <c r="R23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W23" t="s">
         <v>47</v>
@@ -10231,22 +10231,22 @@
         <v>47</v>
       </c>
       <c r="Y23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AE23" t="s">
         <v>50</v>
@@ -10255,22 +10255,22 @@
         <v>64</v>
       </c>
       <c r="AG23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI23" t="s">
         <v>47</v>
       </c>
       <c r="AJ23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK23" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -10278,7 +10278,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -10329,16 +10329,16 @@
         <v>91</v>
       </c>
       <c r="S24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W24" t="s">
         <v>47</v>
@@ -10347,22 +10347,22 @@
         <v>47</v>
       </c>
       <c r="Y24" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AD24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AE24" t="s">
         <v>50</v>
@@ -10371,22 +10371,22 @@
         <v>64</v>
       </c>
       <c r="AG24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI24" t="s">
         <v>47</v>
       </c>
       <c r="AJ24" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK24" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:38">
@@ -10394,7 +10394,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -10445,16 +10445,16 @@
         <v>100</v>
       </c>
       <c r="S25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="T25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="U25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W25" t="s">
         <v>47</v>
@@ -10463,22 +10463,22 @@
         <v>47</v>
       </c>
       <c r="Y25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Z25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AD25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AE25" t="s">
         <v>50</v>
@@ -10487,22 +10487,22 @@
         <v>64</v>
       </c>
       <c r="AG25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AH25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI25" t="s">
         <v>47</v>
       </c>
       <c r="AJ25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AK25" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="AL25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -10690,40 +10690,40 @@
         <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC2" t="s">
         <v>117</v>
       </c>
       <c r="AD2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AE2" t="s">
         <v>50</v>
@@ -10732,27 +10732,27 @@
         <v>64</v>
       </c>
       <c r="AG2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AI2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ2" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
       <c r="AK2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -10773,25 +10773,25 @@
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
         <v>49</v>
@@ -10803,43 +10803,43 @@
         <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y3" t="s">
         <v>107</v>
       </c>
       <c r="Z3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AB3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AE3" t="s">
         <v>50</v>
@@ -10848,22 +10848,22 @@
         <v>64</v>
       </c>
       <c r="AG3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL3" t="s">
         <v>327</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>325</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -10898,7 +10898,7 @@
         <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
         <v>88</v>
@@ -10922,40 +10922,40 @@
         <v>91</v>
       </c>
       <c r="S4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y4" t="s">
         <v>142</v>
       </c>
       <c r="Z4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AE4" t="s">
         <v>50</v>
@@ -10964,22 +10964,22 @@
         <v>64</v>
       </c>
       <c r="AG4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ4" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="AK4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -11038,40 +11038,40 @@
         <v>100</v>
       </c>
       <c r="S5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y5" t="s">
         <v>142</v>
       </c>
       <c r="Z5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE5" t="s">
         <v>50</v>
@@ -11080,22 +11080,22 @@
         <v>64</v>
       </c>
       <c r="AG5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ5" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="AK5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -11154,40 +11154,40 @@
         <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AB6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AC6" t="s">
         <v>117</v>
       </c>
       <c r="AD6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AE6" t="s">
         <v>50</v>
@@ -11196,27 +11196,27 @@
         <v>64</v>
       </c>
       <c r="AG6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AI6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AJ6" t="s">
-        <v>347</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -11240,7 +11240,7 @@
         <v>119</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
@@ -11267,43 +11267,43 @@
         <v>39</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="X7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y7" t="s">
         <v>86</v>
       </c>
       <c r="Z7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC7" t="s">
         <v>164</v>
       </c>
       <c r="AD7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AE7" t="s">
         <v>50</v>
@@ -11312,22 +11312,22 @@
         <v>64</v>
       </c>
       <c r="AG7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AI7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AJ7" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="AK7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -11386,40 +11386,40 @@
         <v>91</v>
       </c>
       <c r="S8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="W8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="X8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y8" t="s">
         <v>142</v>
       </c>
       <c r="Z8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE8" t="s">
         <v>50</v>
@@ -11428,22 +11428,22 @@
         <v>64</v>
       </c>
       <c r="AG8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AI8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ8" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="AK8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -11502,40 +11502,40 @@
         <v>100</v>
       </c>
       <c r="S9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="W9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="X9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Y9" t="s">
         <v>142</v>
       </c>
       <c r="Z9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AC9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AD9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE9" t="s">
         <v>50</v>
@@ -11544,22 +11544,22 @@
         <v>64</v>
       </c>
       <c r="AG9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AI9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ9" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="AK9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -11567,7 +11567,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -11618,34 +11618,34 @@
         <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="W10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X10" t="s">
         <v>105</v>
       </c>
       <c r="Y10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AC10" t="s">
         <v>117</v>
@@ -11660,30 +11660,30 @@
         <v>64</v>
       </c>
       <c r="AG10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ10" t="s">
-        <v>371</v>
+        <v>66</v>
       </c>
       <c r="AK10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -11704,7 +11704,7 @@
         <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
         <v>38</v>
@@ -11731,43 +11731,43 @@
         <v>39</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="X11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AB11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AC11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AD11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AE11" t="s">
         <v>50</v>
@@ -11776,22 +11776,22 @@
         <v>64</v>
       </c>
       <c r="AG11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ11" t="s">
-        <v>378</v>
+        <v>66</v>
       </c>
       <c r="AK11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -11799,7 +11799,7 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
@@ -11850,40 +11850,40 @@
         <v>91</v>
       </c>
       <c r="S12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="W12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y12" t="s">
         <v>107</v>
       </c>
       <c r="Z12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AB12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AC12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AD12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AE12" t="s">
         <v>50</v>
@@ -11892,22 +11892,22 @@
         <v>64</v>
       </c>
       <c r="AG12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AI12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ12" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="AK12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -11915,7 +11915,7 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -11966,40 +11966,40 @@
         <v>100</v>
       </c>
       <c r="S13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="W13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y13" t="s">
         <v>107</v>
       </c>
       <c r="Z13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AB13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AC13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AE13" t="s">
         <v>50</v>
@@ -12008,22 +12008,22 @@
         <v>64</v>
       </c>
       <c r="AG13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AI13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ13" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="AK13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:38">
@@ -12082,40 +12082,40 @@
         <v>51</v>
       </c>
       <c r="S14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="X14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AB14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC14" t="s">
         <v>117</v>
       </c>
       <c r="AD14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AE14" t="s">
         <v>50</v>
@@ -12124,27 +12124,27 @@
         <v>64</v>
       </c>
       <c r="AG14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AJ14" t="s">
-        <v>396</v>
+        <v>66</v>
       </c>
       <c r="AK14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -12165,25 +12165,25 @@
         <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
         <v>49</v>
@@ -12195,43 +12195,43 @@
         <v>39</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="W15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="X15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AB15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AD15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AE15" t="s">
         <v>50</v>
@@ -12240,22 +12240,22 @@
         <v>64</v>
       </c>
       <c r="AG15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AJ15" t="s">
-        <v>403</v>
+        <v>66</v>
       </c>
       <c r="AK15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -12290,7 +12290,7 @@
         <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
         <v>88</v>
@@ -12314,25 +12314,25 @@
         <v>91</v>
       </c>
       <c r="S16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="W16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="X16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y16" t="s">
-        <v>411</v>
+        <v>213</v>
       </c>
       <c r="Z16" t="s">
         <v>412</v>
@@ -12341,10 +12341,10 @@
         <v>413</v>
       </c>
       <c r="AB16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD16" t="s">
         <v>414</v>
@@ -12356,22 +12356,22 @@
         <v>64</v>
       </c>
       <c r="AG16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AI16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AJ16" t="s">
-        <v>411</v>
+        <v>66</v>
       </c>
       <c r="AK16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:38">
@@ -12430,13 +12430,13 @@
         <v>100</v>
       </c>
       <c r="S17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V17" t="s">
         <v>415</v>
@@ -12448,19 +12448,19 @@
         <v>417</v>
       </c>
       <c r="Y17" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="Z17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AB17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC17" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD17" t="s">
         <v>418</v>
@@ -12472,7 +12472,7 @@
         <v>64</v>
       </c>
       <c r="AG17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH17" t="s">
         <v>415</v>
@@ -12481,13 +12481,13 @@
         <v>416</v>
       </c>
       <c r="AJ17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AK17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:38">
@@ -12546,13 +12546,13 @@
         <v>51</v>
       </c>
       <c r="S18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V18" t="s">
         <v>419</v>
@@ -12588,7 +12588,7 @@
         <v>64</v>
       </c>
       <c r="AG18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH18" t="s">
         <v>419</v>
@@ -12597,18 +12597,18 @@
         <v>420</v>
       </c>
       <c r="AJ18" t="s">
-        <v>422</v>
+        <v>66</v>
       </c>
       <c r="AK18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:38">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -12632,7 +12632,7 @@
         <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -12659,16 +12659,16 @@
         <v>39</v>
       </c>
       <c r="R19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V19" t="s">
         <v>427</v>
@@ -12692,7 +12692,7 @@
         <v>433</v>
       </c>
       <c r="AC19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AD19" t="s">
         <v>434</v>
@@ -12704,7 +12704,7 @@
         <v>64</v>
       </c>
       <c r="AG19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH19" t="s">
         <v>427</v>
@@ -12713,13 +12713,13 @@
         <v>428</v>
       </c>
       <c r="AJ19" t="s">
-        <v>430</v>
+        <v>66</v>
       </c>
       <c r="AK19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:38">
@@ -12778,13 +12778,13 @@
         <v>91</v>
       </c>
       <c r="S20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V20" t="s">
         <v>435</v>
@@ -12796,22 +12796,22 @@
         <v>437</v>
       </c>
       <c r="Y20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" t="s">
         <v>438</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>439</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD20" t="s">
         <v>440</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>441</v>
       </c>
       <c r="AE20" t="s">
         <v>50</v>
@@ -12820,7 +12820,7 @@
         <v>64</v>
       </c>
       <c r="AG20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH20" t="s">
         <v>435</v>
@@ -12829,13 +12829,13 @@
         <v>436</v>
       </c>
       <c r="AJ20" t="s">
-        <v>438</v>
+        <v>66</v>
       </c>
       <c r="AK20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -12894,40 +12894,40 @@
         <v>100</v>
       </c>
       <c r="S21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V21" t="s">
+        <v>441</v>
+      </c>
+      <c r="W21" t="s">
         <v>442</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>443</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z21" t="s">
         <v>444</v>
       </c>
-      <c r="Y21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>445</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC21" t="s">
         <v>446</v>
       </c>
-      <c r="AB21" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>447</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>448</v>
       </c>
       <c r="AE21" t="s">
         <v>50</v>
@@ -12936,22 +12936,22 @@
         <v>64</v>
       </c>
       <c r="AG21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH21" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI21" t="s">
         <v>442</v>
       </c>
-      <c r="AI21" t="s">
-        <v>443</v>
-      </c>
       <c r="AJ21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AK21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -12959,7 +12959,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>39</v>
@@ -13010,34 +13010,34 @@
         <v>51</v>
       </c>
       <c r="S22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V22" t="s">
+        <v>448</v>
+      </c>
+      <c r="W22" t="s">
         <v>449</v>
-      </c>
-      <c r="W22" t="s">
-        <v>450</v>
       </c>
       <c r="X22" t="s">
         <v>105</v>
       </c>
       <c r="Y22" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z22" t="s">
         <v>451</v>
       </c>
-      <c r="Z22" t="s">
-        <v>320</v>
-      </c>
       <c r="AA22" t="s">
-        <v>321</v>
+        <v>452</v>
       </c>
       <c r="AB22" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AC22" t="s">
         <v>117</v>
@@ -13052,30 +13052,30 @@
         <v>64</v>
       </c>
       <c r="AG22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH22" t="s">
+        <v>448</v>
+      </c>
+      <c r="AI22" t="s">
         <v>449</v>
       </c>
-      <c r="AI22" t="s">
-        <v>450</v>
-      </c>
       <c r="AJ22" t="s">
-        <v>451</v>
+        <v>66</v>
       </c>
       <c r="AK22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:38">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -13096,7 +13096,7 @@
         <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
@@ -13123,43 +13123,43 @@
         <v>39</v>
       </c>
       <c r="R23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W23" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="X23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Y23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA23" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB23" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AC23" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AD23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AE23" t="s">
         <v>50</v>
@@ -13168,22 +13168,22 @@
         <v>64</v>
       </c>
       <c r="AG23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI23" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ23" t="s">
-        <v>456</v>
+        <v>66</v>
       </c>
       <c r="AK23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -13191,7 +13191,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -13242,37 +13242,37 @@
         <v>91</v>
       </c>
       <c r="S24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V24" t="s">
-        <v>462</v>
+        <v>376</v>
       </c>
       <c r="W24" t="s">
+        <v>377</v>
+      </c>
+      <c r="X24" t="s">
         <v>463</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>464</v>
       </c>
-      <c r="Y24" t="s">
-        <v>155</v>
-      </c>
       <c r="Z24" t="s">
-        <v>244</v>
+        <v>380</v>
       </c>
       <c r="AA24" t="s">
-        <v>245</v>
+        <v>381</v>
       </c>
       <c r="AB24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC24" t="s">
         <v>465</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>339</v>
       </c>
       <c r="AD24" t="s">
         <v>466</v>
@@ -13284,22 +13284,22 @@
         <v>64</v>
       </c>
       <c r="AG24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH24" t="s">
-        <v>462</v>
+        <v>376</v>
       </c>
       <c r="AI24" t="s">
-        <v>463</v>
+        <v>377</v>
       </c>
       <c r="AJ24" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="AK24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:38">
@@ -13307,7 +13307,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -13358,13 +13358,13 @@
         <v>100</v>
       </c>
       <c r="S25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="T25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="U25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V25" t="s">
         <v>467</v>
@@ -13385,7 +13385,7 @@
         <v>472</v>
       </c>
       <c r="AB25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AC25" t="s">
         <v>473</v>
@@ -13400,7 +13400,7 @@
         <v>64</v>
       </c>
       <c r="AG25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AH25" t="s">
         <v>467</v>
@@ -13409,13 +13409,13 @@
         <v>468</v>
       </c>
       <c r="AJ25" t="s">
-        <v>470</v>
+        <v>66</v>
       </c>
       <c r="AK25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
